--- a/Code/Results/Cases/Case_3_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.987732448407631</v>
+        <v>1.01828226581948</v>
       </c>
       <c r="D2">
-        <v>1.007952680540996</v>
+        <v>1.023988810243556</v>
       </c>
       <c r="E2">
-        <v>0.9958831179303484</v>
+        <v>1.019570303576058</v>
       </c>
       <c r="F2">
-        <v>0.9637691172542164</v>
+        <v>1.032675055307309</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038365916817354</v>
+        <v>1.029077743253026</v>
       </c>
       <c r="J2">
-        <v>1.010286374993842</v>
+        <v>1.023491584934031</v>
       </c>
       <c r="K2">
-        <v>1.019302322675447</v>
+        <v>1.026818630414383</v>
       </c>
       <c r="L2">
-        <v>1.007400106999262</v>
+        <v>1.022413159273685</v>
       </c>
       <c r="M2">
-        <v>0.9757573972996595</v>
+        <v>1.035479602737922</v>
       </c>
       <c r="N2">
-        <v>1.011721097527801</v>
+        <v>1.024945060380764</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9922422903025234</v>
+        <v>1.019206354220505</v>
       </c>
       <c r="D3">
-        <v>1.011301416431644</v>
+        <v>1.024670923708495</v>
       </c>
       <c r="E3">
-        <v>0.9994654406555883</v>
+        <v>1.020353090682892</v>
       </c>
       <c r="F3">
-        <v>0.9755377938079642</v>
+        <v>1.034851136299598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040110216674184</v>
+        <v>1.029315555125902</v>
       </c>
       <c r="J3">
-        <v>1.012946695859929</v>
+        <v>1.024052060315076</v>
       </c>
       <c r="K3">
-        <v>1.021791707201364</v>
+        <v>1.02730807989642</v>
       </c>
       <c r="L3">
-        <v>1.010105165840768</v>
+        <v>1.023002063624256</v>
       </c>
       <c r="M3">
-        <v>0.9864935465902416</v>
+        <v>1.037460854153484</v>
       </c>
       <c r="N3">
-        <v>1.01438519635466</v>
+        <v>1.025506331701136</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9950929216509369</v>
+        <v>1.019804394387212</v>
       </c>
       <c r="D4">
-        <v>1.013414733150863</v>
+        <v>1.025111917567211</v>
       </c>
       <c r="E4">
-        <v>1.001735687345928</v>
+        <v>1.020860085200296</v>
       </c>
       <c r="F4">
-        <v>0.9828107466205324</v>
+        <v>1.036252952206666</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041185843741433</v>
+        <v>1.029467165763846</v>
       </c>
       <c r="J4">
-        <v>1.014622989409621</v>
+        <v>1.024414229130816</v>
       </c>
       <c r="K4">
-        <v>1.023353905948862</v>
+        <v>1.027623732581918</v>
       </c>
       <c r="L4">
-        <v>1.011813209193318</v>
+        <v>1.023382949944778</v>
       </c>
       <c r="M4">
-        <v>0.993121155629173</v>
+        <v>1.03873627738264</v>
       </c>
       <c r="N4">
-        <v>1.016063870433465</v>
+        <v>1.025869014838136</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.996275892796545</v>
+        <v>1.020055832901629</v>
       </c>
       <c r="D5">
-        <v>1.014290957235662</v>
+        <v>1.025297220643573</v>
       </c>
       <c r="E5">
-        <v>1.002679187165392</v>
+        <v>1.02107333992435</v>
       </c>
       <c r="F5">
-        <v>0.9857933770401348</v>
+        <v>1.036840811411833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041625993964279</v>
+        <v>1.029530361229935</v>
       </c>
       <c r="J5">
-        <v>1.015317385708269</v>
+        <v>1.024566366168211</v>
       </c>
       <c r="K5">
-        <v>1.023999555391324</v>
+        <v>1.027756181045443</v>
       </c>
       <c r="L5">
-        <v>1.012521592541959</v>
+        <v>1.023543032732151</v>
       </c>
       <c r="M5">
-        <v>0.9958373517571159</v>
+        <v>1.039270921035129</v>
       </c>
       <c r="N5">
-        <v>1.016759252854507</v>
+        <v>1.026021367927574</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9964736339758672</v>
+        <v>1.020098051852938</v>
       </c>
       <c r="D6">
-        <v>1.014437379262134</v>
+        <v>1.025328328524612</v>
       </c>
       <c r="E6">
-        <v>1.002836979339087</v>
+        <v>1.021109153016591</v>
       </c>
       <c r="F6">
-        <v>0.9862899659436488</v>
+        <v>1.036939430647859</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041699208487183</v>
+        <v>1.029540940312631</v>
       </c>
       <c r="J6">
-        <v>1.015433386034118</v>
+        <v>1.024591903685208</v>
       </c>
       <c r="K6">
-        <v>1.024107326449496</v>
+        <v>1.027778404962443</v>
       </c>
       <c r="L6">
-        <v>1.012639978022434</v>
+        <v>1.023569908880115</v>
       </c>
       <c r="M6">
-        <v>0.9962894752394318</v>
+        <v>1.039360600384393</v>
       </c>
       <c r="N6">
-        <v>1.016875417914124</v>
+        <v>1.026046941710775</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9951087882895948</v>
+        <v>1.019807754032285</v>
       </c>
       <c r="D7">
-        <v>1.013426488540772</v>
+        <v>1.025114393952212</v>
       </c>
       <c r="E7">
-        <v>1.00174833665773</v>
+        <v>1.020862934271778</v>
       </c>
       <c r="F7">
-        <v>0.9828508865315578</v>
+        <v>1.036260812919085</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041191771563801</v>
+        <v>1.029468012310651</v>
       </c>
       <c r="J7">
-        <v>1.014632307903847</v>
+        <v>1.024416262459558</v>
       </c>
       <c r="K7">
-        <v>1.023362576092494</v>
+        <v>1.027625503353938</v>
       </c>
       <c r="L7">
-        <v>1.011822712108784</v>
+        <v>1.023385089143066</v>
       </c>
       <c r="M7">
-        <v>0.9931577170115691</v>
+        <v>1.038743427343921</v>
       </c>
       <c r="N7">
-        <v>1.016073202161023</v>
+        <v>1.025871051054438</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9892710178225232</v>
+        <v>1.018594546607203</v>
       </c>
       <c r="D8">
-        <v>1.009095870940476</v>
+        <v>1.02421941221994</v>
       </c>
       <c r="E8">
-        <v>0.9971039979985454</v>
+        <v>1.019834750732507</v>
       </c>
       <c r="F8">
-        <v>0.9678217863027053</v>
+        <v>1.033411787014654</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038966819075495</v>
+        <v>1.029158583841673</v>
       </c>
       <c r="J8">
-        <v>1.011195089737417</v>
+        <v>1.023681103008589</v>
       </c>
       <c r="K8">
-        <v>1.020154026529113</v>
+        <v>1.02698426059864</v>
       </c>
       <c r="L8">
-        <v>1.00832334090038</v>
+        <v>1.022612218251368</v>
       </c>
       <c r="M8">
-        <v>0.9794560248299828</v>
+        <v>1.036150556769322</v>
       </c>
       <c r="N8">
-        <v>1.012631102750542</v>
+        <v>1.025134847592724</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9784299700226177</v>
+        <v>1.016457426711641</v>
       </c>
       <c r="D9">
-        <v>1.001023674568218</v>
+        <v>1.022639432540368</v>
       </c>
       <c r="E9">
-        <v>0.9885279900039626</v>
+        <v>1.018026645188983</v>
       </c>
       <c r="F9">
-        <v>0.9383382942000278</v>
+        <v>1.028342043584558</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034604928959435</v>
+        <v>1.028595871632465</v>
       </c>
       <c r="J9">
-        <v>1.004768109679249</v>
+        <v>1.022381853045494</v>
       </c>
       <c r="K9">
-        <v>1.01410016517148</v>
+        <v>1.025846219183335</v>
       </c>
       <c r="L9">
-        <v>1.00180997575919</v>
+        <v>1.021248991119593</v>
       </c>
       <c r="M9">
-        <v>0.9525178338849797</v>
+        <v>1.031529806652337</v>
       </c>
       <c r="N9">
-        <v>1.006194995643506</v>
+        <v>1.023833752545656</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9707707002109622</v>
+        <v>1.015033140805882</v>
       </c>
       <c r="D10">
-        <v>0.9952940794251979</v>
+        <v>1.021584147919493</v>
       </c>
       <c r="E10">
-        <v>0.9825042746575445</v>
+        <v>1.016823738929021</v>
       </c>
       <c r="F10">
-        <v>0.9159930872855646</v>
+        <v>1.024926889155087</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031340043570135</v>
+        <v>1.028208878953126</v>
       </c>
       <c r="J10">
-        <v>1.000193997454001</v>
+        <v>1.021513118004311</v>
       </c>
       <c r="K10">
-        <v>1.009748823750809</v>
+        <v>1.025082055894061</v>
       </c>
       <c r="L10">
-        <v>0.9971967720897194</v>
+        <v>1.020339280882006</v>
       </c>
       <c r="M10">
-        <v>0.9320650185348719</v>
+        <v>1.028412522839552</v>
       </c>
       <c r="N10">
-        <v>1.00161438765424</v>
+        <v>1.02296378380107</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9673354324399331</v>
+        <v>1.014416513960576</v>
       </c>
       <c r="D11">
-        <v>0.9927157150365149</v>
+        <v>1.021126728254122</v>
       </c>
       <c r="E11">
-        <v>0.9798113681459928</v>
+        <v>1.016303462610997</v>
       </c>
       <c r="F11">
-        <v>0.9054697356690352</v>
+        <v>1.023439234340456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029823433237695</v>
+        <v>1.028038469811257</v>
       </c>
       <c r="J11">
-        <v>0.9981331893926978</v>
+        <v>1.021136333558272</v>
       </c>
       <c r="K11">
-        <v>1.007776322259377</v>
+        <v>1.024749859662138</v>
       </c>
       <c r="L11">
-        <v>0.9951243267220742</v>
+        <v>1.019945153998308</v>
       </c>
       <c r="M11">
-        <v>0.9224254049414389</v>
+        <v>1.027053535997131</v>
       </c>
       <c r="N11">
-        <v>0.9995506530091126</v>
+        <v>1.022586464277899</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9660398765587928</v>
+        <v>1.014187485539689</v>
       </c>
       <c r="D12">
-        <v>0.9917417457798966</v>
+        <v>1.020956750478327</v>
       </c>
       <c r="E12">
-        <v>0.9787971300660993</v>
+        <v>1.016110297601937</v>
       </c>
       <c r="F12">
-        <v>0.9014091347617281</v>
+        <v>1.022885278995918</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029242571324509</v>
+        <v>1.027974743417159</v>
       </c>
       <c r="J12">
-        <v>0.9973544253820961</v>
+        <v>1.020996286021141</v>
       </c>
       <c r="K12">
-        <v>1.007028889770718</v>
+        <v>1.024626269800599</v>
       </c>
       <c r="L12">
-        <v>0.9943421381238791</v>
+        <v>1.01979872505214</v>
       </c>
       <c r="M12">
-        <v>0.9187048333263786</v>
+        <v>1.026547329608178</v>
       </c>
       <c r="N12">
-        <v>0.9987707830642902</v>
+        <v>1.022446217857202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9663186932145893</v>
+        <v>1.014236612277655</v>
       </c>
       <c r="D13">
-        <v>0.9919514310046246</v>
+        <v>1.020993214542761</v>
       </c>
       <c r="E13">
-        <v>0.9790153431144875</v>
+        <v>1.016151728132706</v>
       </c>
       <c r="F13">
-        <v>0.9022874864774567</v>
+        <v>1.02300416715218</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029368000667644</v>
+        <v>1.027988432389959</v>
       </c>
       <c r="J13">
-        <v>0.9975220972624085</v>
+        <v>1.0210263309093</v>
       </c>
       <c r="K13">
-        <v>1.007189912266394</v>
+        <v>1.024652789191089</v>
       </c>
       <c r="L13">
-        <v>0.9945105019725005</v>
+        <v>1.019830136039683</v>
       </c>
       <c r="M13">
-        <v>0.9195096740815851</v>
+        <v>1.026655977399457</v>
       </c>
       <c r="N13">
-        <v>0.9989386930579047</v>
+        <v>1.022476305412549</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9672287511530844</v>
+        <v>1.014397582112449</v>
       </c>
       <c r="D14">
-        <v>0.992635548643852</v>
+        <v>1.021112679304573</v>
       </c>
       <c r="E14">
-        <v>0.9797278242147489</v>
+        <v>1.016287493719312</v>
       </c>
       <c r="F14">
-        <v>0.9051373480439033</v>
+        <v>1.023393472492685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029775790505492</v>
+        <v>1.028033210929947</v>
       </c>
       <c r="J14">
-        <v>0.9980690957787238</v>
+        <v>1.021124759085141</v>
       </c>
       <c r="K14">
-        <v>1.007714850205756</v>
+        <v>1.024739647717127</v>
       </c>
       <c r="L14">
-        <v>0.9950599310093117</v>
+        <v>1.019933050803538</v>
       </c>
       <c r="M14">
-        <v>0.922120869656002</v>
+        <v>1.027011721975261</v>
       </c>
       <c r="N14">
-        <v>0.9994864683748549</v>
+        <v>1.022574873367689</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9677868213668016</v>
+        <v>1.014496762811515</v>
       </c>
       <c r="D15">
-        <v>0.9930548480281746</v>
+        <v>1.021186275965582</v>
       </c>
       <c r="E15">
-        <v>0.9801649134989374</v>
+        <v>1.016371155145912</v>
       </c>
       <c r="F15">
-        <v>0.9068722801455407</v>
+        <v>1.023633153026431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030024649618741</v>
+        <v>1.028060743567716</v>
       </c>
       <c r="J15">
-        <v>0.9984043169196375</v>
+        <v>1.02118539159448</v>
       </c>
       <c r="K15">
-        <v>1.008036275671101</v>
+        <v>1.024793137940852</v>
       </c>
       <c r="L15">
-        <v>0.9953967722533709</v>
+        <v>1.019996455651136</v>
       </c>
       <c r="M15">
-        <v>0.9237103852289159</v>
+        <v>1.027230718861024</v>
       </c>
       <c r="N15">
-        <v>0.9998221655682391</v>
+        <v>1.022635591982145</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9709960475995888</v>
+        <v>1.015074066326243</v>
       </c>
       <c r="D16">
-        <v>0.9954630150631095</v>
+        <v>1.021614495321329</v>
       </c>
       <c r="E16">
-        <v>0.9826811096310371</v>
+        <v>1.016858280398233</v>
       </c>
       <c r="F16">
-        <v>0.9166716995459874</v>
+        <v>1.025025429497276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031438363921422</v>
+        <v>1.028220128437186</v>
       </c>
       <c r="J16">
-        <v>1.000328977216703</v>
+        <v>1.021538110925557</v>
       </c>
       <c r="K16">
-        <v>1.009877752006594</v>
+        <v>1.025104075027851</v>
       </c>
       <c r="L16">
-        <v>0.9973326438219912</v>
+        <v>1.02036543321322</v>
       </c>
       <c r="M16">
-        <v>0.9326865011539494</v>
+        <v>1.028502517578245</v>
       </c>
       <c r="N16">
-        <v>1.001749559103688</v>
+        <v>1.022988812215131</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.972976212380967</v>
+        <v>1.015436219533643</v>
       </c>
       <c r="D17">
-        <v>0.9969464847008594</v>
+        <v>1.021882978669474</v>
       </c>
       <c r="E17">
-        <v>0.9842359895078039</v>
+        <v>1.017163999271384</v>
       </c>
       <c r="F17">
-        <v>0.9225764883262652</v>
+        <v>1.025896363872806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03229630449762</v>
+        <v>1.028319344691182</v>
       </c>
       <c r="J17">
-        <v>1.001514002332492</v>
+        <v>1.021759197128122</v>
       </c>
       <c r="K17">
-        <v>1.011008265768252</v>
+        <v>1.025298766773161</v>
       </c>
       <c r="L17">
-        <v>0.9985261822940953</v>
+        <v>1.020596825055842</v>
       </c>
       <c r="M17">
-        <v>0.9380933780477583</v>
+        <v>1.029297797888668</v>
       </c>
       <c r="N17">
-        <v>1.002936267091065</v>
+        <v>1.023210212385462</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9741198809770671</v>
+        <v>1.015647466900574</v>
       </c>
       <c r="D18">
-        <v>0.9978024942767019</v>
+        <v>1.022039534720265</v>
       </c>
       <c r="E18">
-        <v>0.9851348591667853</v>
+        <v>1.01734237684078</v>
       </c>
       <c r="F18">
-        <v>0.9259408126029565</v>
+        <v>1.026403512129042</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032786962775381</v>
+        <v>1.028376942117547</v>
       </c>
       <c r="J18">
-        <v>1.002197566585138</v>
+        <v>1.021888093521878</v>
       </c>
       <c r="K18">
-        <v>1.011659267649343</v>
+        <v>1.025412200981854</v>
       </c>
       <c r="L18">
-        <v>0.9992152143861972</v>
+        <v>1.020731771142252</v>
       </c>
       <c r="M18">
-        <v>0.9411733152924143</v>
+        <v>1.029760788115887</v>
       </c>
       <c r="N18">
-        <v>1.003620802083357</v>
+        <v>1.023339291826882</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9745079675741197</v>
+        <v>1.015719498424851</v>
       </c>
       <c r="D19">
-        <v>0.9980928418067938</v>
+        <v>1.022092908541788</v>
       </c>
       <c r="E19">
-        <v>0.9854400167475605</v>
+        <v>1.017403208632394</v>
       </c>
       <c r="F19">
-        <v>0.9270750513142765</v>
+        <v>1.026576293132432</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032952662739151</v>
+        <v>1.028396534991445</v>
       </c>
       <c r="J19">
-        <v>1.002429381750385</v>
+        <v>1.021932033789231</v>
       </c>
       <c r="K19">
-        <v>1.011879856011952</v>
+        <v>1.0254508577346</v>
       </c>
       <c r="L19">
-        <v>0.9994489764115901</v>
+        <v>1.020777780736433</v>
       </c>
       <c r="M19">
-        <v>0.9422115548789883</v>
+        <v>1.029918507149918</v>
       </c>
       <c r="N19">
-        <v>1.003852946452728</v>
+        <v>1.023383294494455</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9727649424251125</v>
+        <v>1.015397362940311</v>
       </c>
       <c r="D20">
-        <v>0.9967882921216691</v>
+        <v>1.021854177682011</v>
       </c>
       <c r="E20">
-        <v>0.9840700081710857</v>
+        <v>1.017131192640895</v>
       </c>
       <c r="F20">
-        <v>0.92195137299995</v>
+        <v>1.025803009387289</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032205278748831</v>
+        <v>1.02830872805688</v>
       </c>
       <c r="J20">
-        <v>1.001387658792955</v>
+        <v>1.021735482822868</v>
       </c>
       <c r="K20">
-        <v>1.010887851613488</v>
+        <v>1.02527789124995</v>
       </c>
       <c r="L20">
-        <v>0.9983988727540964</v>
+        <v>1.020572001059999</v>
       </c>
       <c r="M20">
-        <v>0.9375210462831798</v>
+        <v>1.029212563481475</v>
       </c>
       <c r="N20">
-        <v>1.002809744129211</v>
+        <v>1.023186464403175</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9669613166813605</v>
+        <v>1.014350180119355</v>
       </c>
       <c r="D21">
-        <v>0.9924345565287754</v>
+        <v>1.02107750189426</v>
       </c>
       <c r="E21">
-        <v>0.9795184134973363</v>
+        <v>1.016247511686196</v>
       </c>
       <c r="F21">
-        <v>0.9043025564590468</v>
+        <v>1.023278870041672</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029656209791179</v>
+        <v>1.02802003662364</v>
       </c>
       <c r="J21">
-        <v>0.9979083965522731</v>
+        <v>1.021095777011747</v>
       </c>
       <c r="K21">
-        <v>1.007560690212163</v>
+        <v>1.024714075501693</v>
       </c>
       <c r="L21">
-        <v>0.9948984902892993</v>
+        <v>1.019902745874095</v>
       </c>
       <c r="M21">
-        <v>0.9213560142075713</v>
+        <v>1.026907003526377</v>
       </c>
       <c r="N21">
-        <v>0.9993255409370702</v>
+        <v>1.022545850136427</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9631981499340653</v>
+        <v>1.013691856848303</v>
       </c>
       <c r="D22">
-        <v>0.9896020594804438</v>
+        <v>1.020588759641656</v>
       </c>
       <c r="E22">
-        <v>0.9765749594894055</v>
+        <v>1.015692420100441</v>
       </c>
       <c r="F22">
-        <v>0.892309968141438</v>
+        <v>1.021683872207984</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027950624443536</v>
+        <v>1.0278360424472</v>
       </c>
       <c r="J22">
-        <v>0.9956431204844599</v>
+        <v>1.020693030185361</v>
       </c>
       <c r="K22">
-        <v>1.005382354662886</v>
+        <v>1.024358439697181</v>
       </c>
       <c r="L22">
-        <v>0.9926252058308208</v>
+        <v>1.019481769435922</v>
       </c>
       <c r="M22">
-        <v>0.910366009736762</v>
+        <v>1.02544918175121</v>
       </c>
       <c r="N22">
-        <v>0.9970570479174101</v>
+        <v>1.022142531363351</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.965204565058404</v>
+        <v>1.014040838869525</v>
       </c>
       <c r="D23">
-        <v>0.9911132855394008</v>
+        <v>1.020847890693856</v>
       </c>
       <c r="E23">
-        <v>0.9781435808925009</v>
+        <v>1.015986635921456</v>
       </c>
       <c r="F23">
-        <v>0.8987626203216219</v>
+        <v>1.022530180350638</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028865391493252</v>
+        <v>1.027933817348941</v>
       </c>
       <c r="J23">
-        <v>0.9968518482185272</v>
+        <v>1.020906585074091</v>
       </c>
       <c r="K23">
-        <v>1.006545922739158</v>
+        <v>1.024547077537476</v>
       </c>
       <c r="L23">
-        <v>0.9938376365634134</v>
+        <v>1.019704955002437</v>
       </c>
       <c r="M23">
-        <v>0.9162796817444566</v>
+        <v>1.026222793345425</v>
       </c>
       <c r="N23">
-        <v>0.9982674921835027</v>
+        <v>1.022356389524519</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9728604411073513</v>
+        <v>1.015414920533319</v>
       </c>
       <c r="D24">
-        <v>0.9968598010788789</v>
+        <v>1.02186719175024</v>
       </c>
       <c r="E24">
-        <v>0.9841450328259209</v>
+        <v>1.017146016369619</v>
       </c>
       <c r="F24">
-        <v>0.9222340806704207</v>
+        <v>1.02584519489508</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032246439390268</v>
+        <v>1.028313526102817</v>
       </c>
       <c r="J24">
-        <v>1.001444771522624</v>
+        <v>1.021746198480644</v>
       </c>
       <c r="K24">
-        <v>1.010942287461448</v>
+        <v>1.025287324390506</v>
       </c>
       <c r="L24">
-        <v>0.9984564204335754</v>
+        <v>1.020583218019975</v>
       </c>
       <c r="M24">
-        <v>0.9377798848314109</v>
+        <v>1.029251079969115</v>
       </c>
       <c r="N24">
-        <v>1.002866937965507</v>
+        <v>1.023197195278414</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9813039281716708</v>
+        <v>1.017009841080973</v>
       </c>
       <c r="D25">
-        <v>1.003167598274201</v>
+        <v>1.023048240598505</v>
       </c>
       <c r="E25">
-        <v>0.9907955854509136</v>
+        <v>1.018493644968583</v>
       </c>
       <c r="F25">
-        <v>0.9463763888743875</v>
+        <v>1.029658762880169</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035790360730193</v>
+        <v>1.028743426664544</v>
       </c>
       <c r="J25">
-        <v>1.00647729775449</v>
+        <v>1.02271819216453</v>
       </c>
       <c r="K25">
-        <v>1.015716939569731</v>
+        <v>1.026141391793402</v>
       </c>
       <c r="L25">
-        <v>1.003538488606441</v>
+        <v>1.021601575312083</v>
       </c>
       <c r="M25">
-        <v>0.9598683867697282</v>
+        <v>1.032730718232885</v>
       </c>
       <c r="N25">
-        <v>1.007906610961861</v>
+        <v>1.02417056930482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01828226581948</v>
+        <v>0.9877324484076301</v>
       </c>
       <c r="D2">
-        <v>1.023988810243556</v>
+        <v>1.007952680540996</v>
       </c>
       <c r="E2">
-        <v>1.019570303576058</v>
+        <v>0.9958831179303479</v>
       </c>
       <c r="F2">
-        <v>1.032675055307309</v>
+        <v>0.9637691172542149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029077743253026</v>
+        <v>1.038365916817354</v>
       </c>
       <c r="J2">
-        <v>1.023491584934031</v>
+        <v>1.010286374993842</v>
       </c>
       <c r="K2">
-        <v>1.026818630414383</v>
+        <v>1.019302322675447</v>
       </c>
       <c r="L2">
-        <v>1.022413159273685</v>
+        <v>1.007400106999261</v>
       </c>
       <c r="M2">
-        <v>1.035479602737922</v>
+        <v>0.9757573972996578</v>
       </c>
       <c r="N2">
-        <v>1.024945060380764</v>
+        <v>1.0117210975278</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019206354220505</v>
+        <v>0.992242290302523</v>
       </c>
       <c r="D3">
-        <v>1.024670923708495</v>
+        <v>1.011301416431644</v>
       </c>
       <c r="E3">
-        <v>1.020353090682892</v>
+        <v>0.9994654406555883</v>
       </c>
       <c r="F3">
-        <v>1.034851136299598</v>
+        <v>0.9755377938079633</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029315555125902</v>
+        <v>1.040110216674184</v>
       </c>
       <c r="J3">
-        <v>1.024052060315076</v>
+        <v>1.012946695859929</v>
       </c>
       <c r="K3">
-        <v>1.02730807989642</v>
+        <v>1.021791707201363</v>
       </c>
       <c r="L3">
-        <v>1.023002063624256</v>
+        <v>1.010105165840768</v>
       </c>
       <c r="M3">
-        <v>1.037460854153484</v>
+        <v>0.9864935465902408</v>
       </c>
       <c r="N3">
-        <v>1.025506331701136</v>
+        <v>1.01438519635466</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019804394387212</v>
+        <v>0.995092921650937</v>
       </c>
       <c r="D4">
-        <v>1.025111917567211</v>
+        <v>1.013414733150863</v>
       </c>
       <c r="E4">
-        <v>1.020860085200296</v>
+        <v>1.001735687345928</v>
       </c>
       <c r="F4">
-        <v>1.036252952206666</v>
+        <v>0.9828107466205328</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029467165763846</v>
+        <v>1.041185843741433</v>
       </c>
       <c r="J4">
-        <v>1.024414229130816</v>
+        <v>1.01462298940962</v>
       </c>
       <c r="K4">
-        <v>1.027623732581918</v>
+        <v>1.023353905948862</v>
       </c>
       <c r="L4">
-        <v>1.023382949944778</v>
+        <v>1.011813209193318</v>
       </c>
       <c r="M4">
-        <v>1.03873627738264</v>
+        <v>0.9931211556291737</v>
       </c>
       <c r="N4">
-        <v>1.025869014838136</v>
+        <v>1.016063870433466</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020055832901629</v>
+        <v>0.9962758927965447</v>
       </c>
       <c r="D5">
-        <v>1.025297220643573</v>
+        <v>1.014290957235662</v>
       </c>
       <c r="E5">
-        <v>1.02107333992435</v>
+        <v>1.002679187165392</v>
       </c>
       <c r="F5">
-        <v>1.036840811411833</v>
+        <v>0.9857933770401346</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029530361229935</v>
+        <v>1.04162599396428</v>
       </c>
       <c r="J5">
-        <v>1.024566366168211</v>
+        <v>1.015317385708269</v>
       </c>
       <c r="K5">
-        <v>1.027756181045443</v>
+        <v>1.023999555391324</v>
       </c>
       <c r="L5">
-        <v>1.023543032732151</v>
+        <v>1.012521592541958</v>
       </c>
       <c r="M5">
-        <v>1.039270921035129</v>
+        <v>0.9958373517571157</v>
       </c>
       <c r="N5">
-        <v>1.026021367927574</v>
+        <v>1.016759252854506</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020098051852938</v>
+        <v>0.9964736339758681</v>
       </c>
       <c r="D6">
-        <v>1.025328328524612</v>
+        <v>1.014437379262135</v>
       </c>
       <c r="E6">
-        <v>1.021109153016591</v>
+        <v>1.002836979339088</v>
       </c>
       <c r="F6">
-        <v>1.036939430647859</v>
+        <v>0.9862899659436501</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029540940312631</v>
+        <v>1.041699208487184</v>
       </c>
       <c r="J6">
-        <v>1.024591903685208</v>
+        <v>1.015433386034119</v>
       </c>
       <c r="K6">
-        <v>1.027778404962443</v>
+        <v>1.024107326449497</v>
       </c>
       <c r="L6">
-        <v>1.023569908880115</v>
+        <v>1.012639978022435</v>
       </c>
       <c r="M6">
-        <v>1.039360600384393</v>
+        <v>0.9962894752394332</v>
       </c>
       <c r="N6">
-        <v>1.026046941710775</v>
+        <v>1.016875417914125</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019807754032285</v>
+        <v>0.9951087882895937</v>
       </c>
       <c r="D7">
-        <v>1.025114393952212</v>
+        <v>1.013426488540771</v>
       </c>
       <c r="E7">
-        <v>1.020862934271778</v>
+        <v>1.001748336657729</v>
       </c>
       <c r="F7">
-        <v>1.036260812919085</v>
+        <v>0.9828508865315572</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029468012310651</v>
+        <v>1.0411917715638</v>
       </c>
       <c r="J7">
-        <v>1.024416262459558</v>
+        <v>1.014632307903846</v>
       </c>
       <c r="K7">
-        <v>1.027625503353938</v>
+        <v>1.023362576092493</v>
       </c>
       <c r="L7">
-        <v>1.023385089143066</v>
+        <v>1.011822712108783</v>
       </c>
       <c r="M7">
-        <v>1.038743427343921</v>
+        <v>0.9931577170115683</v>
       </c>
       <c r="N7">
-        <v>1.025871051054438</v>
+        <v>1.016073202161022</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018594546607203</v>
+        <v>0.9892710178225215</v>
       </c>
       <c r="D8">
-        <v>1.02421941221994</v>
+        <v>1.009095870940474</v>
       </c>
       <c r="E8">
-        <v>1.019834750732507</v>
+        <v>0.9971039979985441</v>
       </c>
       <c r="F8">
-        <v>1.033411787014654</v>
+        <v>0.9678217863027045</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029158583841673</v>
+        <v>1.038966819075494</v>
       </c>
       <c r="J8">
-        <v>1.023681103008589</v>
+        <v>1.011195089737416</v>
       </c>
       <c r="K8">
-        <v>1.02698426059864</v>
+        <v>1.020154026529111</v>
       </c>
       <c r="L8">
-        <v>1.022612218251368</v>
+        <v>1.008323340900378</v>
       </c>
       <c r="M8">
-        <v>1.036150556769322</v>
+        <v>0.9794560248299818</v>
       </c>
       <c r="N8">
-        <v>1.025134847592724</v>
+        <v>1.012631102750541</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016457426711641</v>
+        <v>0.9784299700226173</v>
       </c>
       <c r="D9">
-        <v>1.022639432540368</v>
+        <v>1.001023674568217</v>
       </c>
       <c r="E9">
-        <v>1.018026645188983</v>
+        <v>0.9885279900039625</v>
       </c>
       <c r="F9">
-        <v>1.028342043584558</v>
+        <v>0.9383382942000277</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028595871632465</v>
+        <v>1.034604928959434</v>
       </c>
       <c r="J9">
-        <v>1.022381853045494</v>
+        <v>1.004768109679248</v>
       </c>
       <c r="K9">
-        <v>1.025846219183335</v>
+        <v>1.014100165171479</v>
       </c>
       <c r="L9">
-        <v>1.021248991119593</v>
+        <v>1.00180997575919</v>
       </c>
       <c r="M9">
-        <v>1.031529806652337</v>
+        <v>0.9525178338849797</v>
       </c>
       <c r="N9">
-        <v>1.023833752545656</v>
+        <v>1.006194995643506</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015033140805882</v>
+        <v>0.9707707002109623</v>
       </c>
       <c r="D10">
-        <v>1.021584147919493</v>
+        <v>0.9952940794251978</v>
       </c>
       <c r="E10">
-        <v>1.016823738929021</v>
+        <v>0.9825042746575444</v>
       </c>
       <c r="F10">
-        <v>1.024926889155087</v>
+        <v>0.9159930872855629</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028208878953126</v>
+        <v>1.031340043570135</v>
       </c>
       <c r="J10">
-        <v>1.021513118004311</v>
+        <v>1.000193997454001</v>
       </c>
       <c r="K10">
-        <v>1.025082055894061</v>
+        <v>1.009748823750809</v>
       </c>
       <c r="L10">
-        <v>1.020339280882006</v>
+        <v>0.9971967720897191</v>
       </c>
       <c r="M10">
-        <v>1.028412522839552</v>
+        <v>0.9320650185348703</v>
       </c>
       <c r="N10">
-        <v>1.02296378380107</v>
+        <v>1.00161438765424</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014416513960576</v>
+        <v>0.9673354324399328</v>
       </c>
       <c r="D11">
-        <v>1.021126728254122</v>
+        <v>0.9927157150365145</v>
       </c>
       <c r="E11">
-        <v>1.016303462610997</v>
+        <v>0.9798113681459925</v>
       </c>
       <c r="F11">
-        <v>1.023439234340456</v>
+        <v>0.9054697356690344</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028038469811257</v>
+        <v>1.029823433237695</v>
       </c>
       <c r="J11">
-        <v>1.021136333558272</v>
+        <v>0.9981331893926974</v>
       </c>
       <c r="K11">
-        <v>1.024749859662138</v>
+        <v>1.007776322259376</v>
       </c>
       <c r="L11">
-        <v>1.019945153998308</v>
+        <v>0.995124326722074</v>
       </c>
       <c r="M11">
-        <v>1.027053535997131</v>
+        <v>0.9224254049414379</v>
       </c>
       <c r="N11">
-        <v>1.022586464277899</v>
+        <v>0.9995506530091121</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014187485539689</v>
+        <v>0.9660398765587925</v>
       </c>
       <c r="D12">
-        <v>1.020956750478327</v>
+        <v>0.9917417457798964</v>
       </c>
       <c r="E12">
-        <v>1.016110297601937</v>
+        <v>0.9787971300660988</v>
       </c>
       <c r="F12">
-        <v>1.022885278995918</v>
+        <v>0.9014091347617287</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027974743417159</v>
+        <v>1.029242571324509</v>
       </c>
       <c r="J12">
-        <v>1.020996286021141</v>
+        <v>0.9973544253820958</v>
       </c>
       <c r="K12">
-        <v>1.024626269800599</v>
+        <v>1.007028889770718</v>
       </c>
       <c r="L12">
-        <v>1.01979872505214</v>
+        <v>0.9943421381238786</v>
       </c>
       <c r="M12">
-        <v>1.026547329608178</v>
+        <v>0.9187048333263792</v>
       </c>
       <c r="N12">
-        <v>1.022446217857202</v>
+        <v>0.9987707830642898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014236612277655</v>
+        <v>0.9663186932145901</v>
       </c>
       <c r="D13">
-        <v>1.020993214542761</v>
+        <v>0.9919514310046254</v>
       </c>
       <c r="E13">
-        <v>1.016151728132706</v>
+        <v>0.9790153431144877</v>
       </c>
       <c r="F13">
-        <v>1.02300416715218</v>
+        <v>0.9022874864774577</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027988432389959</v>
+        <v>1.029368000667645</v>
       </c>
       <c r="J13">
-        <v>1.0210263309093</v>
+        <v>0.9975220972624091</v>
       </c>
       <c r="K13">
-        <v>1.024652789191089</v>
+        <v>1.007189912266395</v>
       </c>
       <c r="L13">
-        <v>1.019830136039683</v>
+        <v>0.9945105019725007</v>
       </c>
       <c r="M13">
-        <v>1.026655977399457</v>
+        <v>0.9195096740815863</v>
       </c>
       <c r="N13">
-        <v>1.022476305412549</v>
+        <v>0.9989386930579054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014397582112449</v>
+        <v>0.9672287511530845</v>
       </c>
       <c r="D14">
-        <v>1.021112679304573</v>
+        <v>0.9926355486438522</v>
       </c>
       <c r="E14">
-        <v>1.016287493719312</v>
+        <v>0.9797278242147486</v>
       </c>
       <c r="F14">
-        <v>1.023393472492685</v>
+        <v>0.9051373480439024</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028033210929947</v>
+        <v>1.029775790505492</v>
       </c>
       <c r="J14">
-        <v>1.021124759085141</v>
+        <v>0.9980690957787238</v>
       </c>
       <c r="K14">
-        <v>1.024739647717127</v>
+        <v>1.007714850205756</v>
       </c>
       <c r="L14">
-        <v>1.019933050803538</v>
+        <v>0.9950599310093116</v>
       </c>
       <c r="M14">
-        <v>1.027011721975261</v>
+        <v>0.9221208696560013</v>
       </c>
       <c r="N14">
-        <v>1.022574873367689</v>
+        <v>0.9994864683748551</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014496762811515</v>
+        <v>0.9677868213668017</v>
       </c>
       <c r="D15">
-        <v>1.021186275965582</v>
+        <v>0.9930548480281746</v>
       </c>
       <c r="E15">
-        <v>1.016371155145912</v>
+        <v>0.9801649134989373</v>
       </c>
       <c r="F15">
-        <v>1.023633153026431</v>
+        <v>0.9068722801455411</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028060743567716</v>
+        <v>1.030024649618741</v>
       </c>
       <c r="J15">
-        <v>1.02118539159448</v>
+        <v>0.9984043169196375</v>
       </c>
       <c r="K15">
-        <v>1.024793137940852</v>
+        <v>1.008036275671101</v>
       </c>
       <c r="L15">
-        <v>1.019996455651136</v>
+        <v>0.9953967722533708</v>
       </c>
       <c r="M15">
-        <v>1.027230718861024</v>
+        <v>0.9237103852289165</v>
       </c>
       <c r="N15">
-        <v>1.022635591982145</v>
+        <v>0.9998221655682393</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015074066326243</v>
+        <v>0.9709960475995895</v>
       </c>
       <c r="D16">
-        <v>1.021614495321329</v>
+        <v>0.9954630150631101</v>
       </c>
       <c r="E16">
-        <v>1.016858280398233</v>
+        <v>0.9826811096310372</v>
       </c>
       <c r="F16">
-        <v>1.025025429497276</v>
+        <v>0.916671699545988</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028220128437186</v>
+        <v>1.031438363921422</v>
       </c>
       <c r="J16">
-        <v>1.021538110925557</v>
+        <v>1.000328977216704</v>
       </c>
       <c r="K16">
-        <v>1.025104075027851</v>
+        <v>1.009877752006594</v>
       </c>
       <c r="L16">
-        <v>1.02036543321322</v>
+        <v>0.9973326438219913</v>
       </c>
       <c r="M16">
-        <v>1.028502517578245</v>
+        <v>0.9326865011539498</v>
       </c>
       <c r="N16">
-        <v>1.022988812215131</v>
+        <v>1.001749559103689</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015436219533643</v>
+        <v>0.9729762123809671</v>
       </c>
       <c r="D17">
-        <v>1.021882978669474</v>
+        <v>0.9969464847008593</v>
       </c>
       <c r="E17">
-        <v>1.017163999271384</v>
+        <v>0.9842359895078037</v>
       </c>
       <c r="F17">
-        <v>1.025896363872806</v>
+        <v>0.9225764883262656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028319344691182</v>
+        <v>1.03229630449762</v>
       </c>
       <c r="J17">
-        <v>1.021759197128122</v>
+        <v>1.001514002332492</v>
       </c>
       <c r="K17">
-        <v>1.025298766773161</v>
+        <v>1.011008265768252</v>
       </c>
       <c r="L17">
-        <v>1.020596825055842</v>
+        <v>0.998526182294095</v>
       </c>
       <c r="M17">
-        <v>1.029297797888668</v>
+        <v>0.9380933780477587</v>
       </c>
       <c r="N17">
-        <v>1.023210212385462</v>
+        <v>1.002936267091065</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015647466900574</v>
+        <v>0.9741198809770666</v>
       </c>
       <c r="D18">
-        <v>1.022039534720265</v>
+        <v>0.9978024942767016</v>
       </c>
       <c r="E18">
-        <v>1.01734237684078</v>
+        <v>0.985134859166785</v>
       </c>
       <c r="F18">
-        <v>1.026403512129042</v>
+        <v>0.9259408126029572</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028376942117547</v>
+        <v>1.032786962775381</v>
       </c>
       <c r="J18">
-        <v>1.021888093521878</v>
+        <v>1.002197566585138</v>
       </c>
       <c r="K18">
-        <v>1.025412200981854</v>
+        <v>1.011659267649343</v>
       </c>
       <c r="L18">
-        <v>1.020731771142252</v>
+        <v>0.9992152143861968</v>
       </c>
       <c r="M18">
-        <v>1.029760788115887</v>
+        <v>0.941173315292415</v>
       </c>
       <c r="N18">
-        <v>1.023339291826882</v>
+        <v>1.003620802083357</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015719498424851</v>
+        <v>0.9745079675741204</v>
       </c>
       <c r="D19">
-        <v>1.022092908541788</v>
+        <v>0.9980928418067943</v>
       </c>
       <c r="E19">
-        <v>1.017403208632394</v>
+        <v>0.985440016747561</v>
       </c>
       <c r="F19">
-        <v>1.026576293132432</v>
+        <v>0.9270750513142771</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028396534991445</v>
+        <v>1.032952662739151</v>
       </c>
       <c r="J19">
-        <v>1.021932033789231</v>
+        <v>1.002429381750386</v>
       </c>
       <c r="K19">
-        <v>1.0254508577346</v>
+        <v>1.011879856011952</v>
       </c>
       <c r="L19">
-        <v>1.020777780736433</v>
+        <v>0.9994489764115906</v>
       </c>
       <c r="M19">
-        <v>1.029918507149918</v>
+        <v>0.9422115548789893</v>
       </c>
       <c r="N19">
-        <v>1.023383294494455</v>
+        <v>1.003852946452728</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015397362940311</v>
+        <v>0.9727649424251122</v>
       </c>
       <c r="D20">
-        <v>1.021854177682011</v>
+        <v>0.9967882921216685</v>
       </c>
       <c r="E20">
-        <v>1.017131192640895</v>
+        <v>0.9840700081710851</v>
       </c>
       <c r="F20">
-        <v>1.025803009387289</v>
+        <v>0.9219513729999517</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02830872805688</v>
+        <v>1.032205278748831</v>
       </c>
       <c r="J20">
-        <v>1.021735482822868</v>
+        <v>1.001387658792955</v>
       </c>
       <c r="K20">
-        <v>1.02527789124995</v>
+        <v>1.010887851613487</v>
       </c>
       <c r="L20">
-        <v>1.020572001059999</v>
+        <v>0.9983988727540959</v>
       </c>
       <c r="M20">
-        <v>1.029212563481475</v>
+        <v>0.9375210462831812</v>
       </c>
       <c r="N20">
-        <v>1.023186464403175</v>
+        <v>1.002809744129211</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014350180119355</v>
+        <v>0.9669613166813614</v>
       </c>
       <c r="D21">
-        <v>1.02107750189426</v>
+        <v>0.9924345565287762</v>
       </c>
       <c r="E21">
-        <v>1.016247511686196</v>
+        <v>0.9795184134973371</v>
       </c>
       <c r="F21">
-        <v>1.023278870041672</v>
+        <v>0.9043025564590482</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02802003662364</v>
+        <v>1.029656209791179</v>
       </c>
       <c r="J21">
-        <v>1.021095777011747</v>
+        <v>0.9979083965522738</v>
       </c>
       <c r="K21">
-        <v>1.024714075501693</v>
+        <v>1.007560690212163</v>
       </c>
       <c r="L21">
-        <v>1.019902745874095</v>
+        <v>0.9948984902893003</v>
       </c>
       <c r="M21">
-        <v>1.026907003526377</v>
+        <v>0.9213560142075728</v>
       </c>
       <c r="N21">
-        <v>1.022545850136427</v>
+        <v>0.999325540937071</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013691856848303</v>
+        <v>0.963198149934067</v>
       </c>
       <c r="D22">
-        <v>1.020588759641656</v>
+        <v>0.9896020594804449</v>
       </c>
       <c r="E22">
-        <v>1.015692420100441</v>
+        <v>0.976574959489407</v>
       </c>
       <c r="F22">
-        <v>1.021683872207984</v>
+        <v>0.8923099681414398</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0278360424472</v>
+        <v>1.027950624443537</v>
       </c>
       <c r="J22">
-        <v>1.020693030185361</v>
+        <v>0.9956431204844614</v>
       </c>
       <c r="K22">
-        <v>1.024358439697181</v>
+        <v>1.005382354662888</v>
       </c>
       <c r="L22">
-        <v>1.019481769435922</v>
+        <v>0.9926252058308223</v>
       </c>
       <c r="M22">
-        <v>1.02544918175121</v>
+        <v>0.9103660097367635</v>
       </c>
       <c r="N22">
-        <v>1.022142531363351</v>
+        <v>0.9970570479174117</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014040838869525</v>
+        <v>0.9652045650584037</v>
       </c>
       <c r="D23">
-        <v>1.020847890693856</v>
+        <v>0.9911132855394005</v>
       </c>
       <c r="E23">
-        <v>1.015986635921456</v>
+        <v>0.9781435808925003</v>
       </c>
       <c r="F23">
-        <v>1.022530180350638</v>
+        <v>0.8987626203216214</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027933817348941</v>
+        <v>1.028865391493251</v>
       </c>
       <c r="J23">
-        <v>1.020906585074091</v>
+        <v>0.9968518482185267</v>
       </c>
       <c r="K23">
-        <v>1.024547077537476</v>
+        <v>1.006545922739158</v>
       </c>
       <c r="L23">
-        <v>1.019704955002437</v>
+        <v>0.9938376365634127</v>
       </c>
       <c r="M23">
-        <v>1.026222793345425</v>
+        <v>0.9162796817444562</v>
       </c>
       <c r="N23">
-        <v>1.022356389524519</v>
+        <v>0.9982674921835021</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015414920533319</v>
+        <v>0.9728604411073514</v>
       </c>
       <c r="D24">
-        <v>1.02186719175024</v>
+        <v>0.9968598010788792</v>
       </c>
       <c r="E24">
-        <v>1.017146016369619</v>
+        <v>0.9841450328259208</v>
       </c>
       <c r="F24">
-        <v>1.02584519489508</v>
+        <v>0.9222340806704201</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028313526102817</v>
+        <v>1.032246439390268</v>
       </c>
       <c r="J24">
-        <v>1.021746198480644</v>
+        <v>1.001444771522625</v>
       </c>
       <c r="K24">
-        <v>1.025287324390506</v>
+        <v>1.010942287461448</v>
       </c>
       <c r="L24">
-        <v>1.020583218019975</v>
+        <v>0.9984564204335753</v>
       </c>
       <c r="M24">
-        <v>1.029251079969115</v>
+        <v>0.9377798848314105</v>
       </c>
       <c r="N24">
-        <v>1.023197195278414</v>
+        <v>1.002866937965508</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017009841080973</v>
+        <v>0.9813039281716721</v>
       </c>
       <c r="D25">
-        <v>1.023048240598505</v>
+        <v>1.003167598274202</v>
       </c>
       <c r="E25">
-        <v>1.018493644968583</v>
+        <v>0.9907955854509144</v>
       </c>
       <c r="F25">
-        <v>1.029658762880169</v>
+        <v>0.9463763888743895</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028743426664544</v>
+        <v>1.035790360730193</v>
       </c>
       <c r="J25">
-        <v>1.02271819216453</v>
+        <v>1.006477297754491</v>
       </c>
       <c r="K25">
-        <v>1.026141391793402</v>
+        <v>1.015716939569731</v>
       </c>
       <c r="L25">
-        <v>1.021601575312083</v>
+        <v>1.003538488606442</v>
       </c>
       <c r="M25">
-        <v>1.032730718232885</v>
+        <v>0.9598683867697302</v>
       </c>
       <c r="N25">
-        <v>1.02417056930482</v>
+        <v>1.007906610961862</v>
       </c>
     </row>
   </sheetData>
